--- a/Report Template.xlsx
+++ b/Report Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMK\Harjoittelu\UiPath\TravelExpenseAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E126040C-EA17-4A9C-AF9C-90A1871E1726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F64F9-FEAC-4386-92B4-BCD26046DC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master File" sheetId="1" r:id="rId1"/>
@@ -182,11 +182,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,20 +526,20 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -550,17 +550,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09886B06-4728-4A7B-BE7B-998A33CA5698}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -569,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1ABB591-3651-48B1-B26F-C8F8E483041C}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
